--- a/Data/Trade/SZ.000783.xlsx
+++ b/Data/Trade/SZ.000783.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>243</v>
+        <v>566</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8.460253440000001</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -487,12 +487,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>77.77777777777811</v>
+        <v>77.70588205924989</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>244</v>
+        <v>567</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8.4700454</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -512,12 +512,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.77777777777794</v>
+        <v>80.76962006471555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>245</v>
+        <v>568</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8.35254188</v>
+        <v>8.35</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -537,12 +537,12 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>48.8165589412128</v>
+        <v>48.12935311451815</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>246</v>
+        <v>569</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.54838108</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -562,12 +562,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>49.46013919166757</v>
+        <v>49.46637812923726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>247</v>
+        <v>570</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.4210856</v>
+        <v>8.42</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -587,12 +587,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>33.4990311993764</v>
+        <v>33.40343957174694</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>248</v>
+        <v>571</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8.2252464</v>
+        <v>8.23</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -612,12 +612,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.376991025496622</v>
+        <v>3.996061002389681</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>249</v>
+        <v>572</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.54838108</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -637,12 +637,12 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>33.15145337141863</v>
+        <v>33.670736663551</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>250</v>
+        <v>573</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.283998159999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -662,12 +662,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>15.2736851127347</v>
+        <v>15.01385589889763</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>251</v>
+        <v>574</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.13711876</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -687,12 +687,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.52178958089344</v>
+        <v>-5.319268874148065</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>252</v>
+        <v>575</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.088158959999999</v>
+        <v>8.09</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -712,12 +712,12 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.938861768526884</v>
+        <v>-7.662140609678872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.04899112</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -737,12 +737,12 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.658776786040214</v>
+        <v>-6.44374409832897</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>254</v>
+        <v>577</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.009823280000001</v>
+        <v>8.01</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -762,12 +762,12 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.706325030128717</v>
+        <v>-4.607864266764032</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>255</v>
+        <v>578</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7.94127956</v>
+        <v>7.94</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -787,12 +787,12 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.426971419442655</v>
+        <v>-7.55447440998547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>256</v>
+        <v>579</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8.009823280000001</v>
+        <v>8.01</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -812,12 +812,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3927090830843269</v>
+        <v>0.3286705295357812</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>257</v>
+        <v>580</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7.86294388</v>
+        <v>7.86</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -837,12 +837,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.09716603876501395</v>
+        <v>-0.4401516064081434</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>258</v>
+        <v>581</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7.74544036</v>
+        <v>7.75</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -862,12 +862,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.911974643070256</v>
+        <v>-1.674471730492161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>259</v>
+        <v>582</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.57897704</v>
+        <v>7.58</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -887,12 +887,12 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1765054401790564</v>
+        <v>0.03953200683988101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>260</v>
+        <v>583</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7.59856096</v>
+        <v>7.6</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -912,12 +912,12 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.629599346782634</v>
+        <v>3.880597693735201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>261</v>
+        <v>584</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.53001724</v>
+        <v>7.53</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -937,12 +937,12 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.15453422224326</v>
+        <v>4.258672583041241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>262</v>
+        <v>585</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.56918508</v>
+        <v>7.57</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -962,12 +962,12 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>9.234019239761899</v>
+        <v>9.35972673774752</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>263</v>
+        <v>586</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7.40272176</v>
+        <v>7.4</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -987,12 +987,12 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>9.143882678978184</v>
+        <v>8.918698183296394</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>264</v>
+        <v>587</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7.46147352</v>
+        <v>7.46</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1012,12 +1012,12 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>14.72793611176921</v>
+        <v>14.45511319421112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>265</v>
+        <v>588</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.33417804</v>
+        <v>7.33</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1037,12 +1037,12 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>7.194107805283679</v>
+        <v>6.585341619836381</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>266</v>
+        <v>589</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6.97187552</v>
+        <v>6.97</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1062,12 +1062,12 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>4.279900549409987</v>
+        <v>3.841162178696802</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>267</v>
+        <v>590</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6.88374788</v>
+        <v>6.88</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1087,12 +1087,12 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6788292957952731</v>
+        <v>0.171988623979674</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>268</v>
+        <v>591</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6.87395592</v>
+        <v>6.87</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1112,12 +1112,12 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.4714252989112</v>
+        <v>2.915874280541308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>269</v>
+        <v>592</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.01104336</v>
+        <v>7.01</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1137,12 +1137,12 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.62419861379106</v>
+        <v>18.30813890978177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>270</v>
+        <v>593</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.96208356</v>
+        <v>6.96</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1162,12 +1162,12 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>21.28121370857598</v>
+        <v>20.99289952362881</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>271</v>
+        <v>594</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7.07958708</v>
+        <v>7.08</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1187,12 +1187,12 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>33.35058314181717</v>
+        <v>33.3170623228373</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>272</v>
+        <v>595</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.22646648</v>
+        <v>7.23</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1212,12 +1212,12 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>59.33179690171397</v>
+        <v>59.77667913442878</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>273</v>
+        <v>596</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.20688256</v>
+        <v>7.21</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1237,12 +1237,12 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>68.66835194050614</v>
+        <v>69.28634917807122</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>274</v>
+        <v>597</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.16771472</v>
+        <v>7.17</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1262,12 +1262,12 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>72.79069899269803</v>
+        <v>73.41080769289162</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>275</v>
+        <v>598</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7.1970906</v>
+        <v>7.2</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1287,12 +1287,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>76.75004570065217</v>
+        <v>77.4239749006903</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>276</v>
+        <v>599</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7.16771472</v>
+        <v>7.17</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1312,12 +1312,12 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>73.20776983327291</v>
+        <v>73.80402756224925</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7.099171</v>
+        <v>7.1</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1337,12 +1337,12 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>59.06449809565216</v>
+        <v>59.42064066441048</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>278</v>
+        <v>601</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7.03062728</v>
+        <v>7.03</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1362,12 +1362,12 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>29.80030596543843</v>
+        <v>29.81069471221808</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>279</v>
+        <v>602</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7.01104336</v>
+        <v>7.01</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -1387,12 +1387,12 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.907099670037908</v>
+        <v>5.66328824859373</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>280</v>
+        <v>603</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7.099171</v>
+        <v>7.1</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1412,12 +1412,12 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>12.34199639538944</v>
+        <v>12.32006904944657</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>281</v>
+        <v>604</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7.07958708</v>
+        <v>7.08</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1437,12 +1437,12 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.33678982015607</v>
+        <v>13.3633750202951</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>282</v>
+        <v>605</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7.17750668</v>
+        <v>7.18</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1462,12 +1462,12 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>47.66145358388906</v>
+        <v>48.28302791184647</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>283</v>
+        <v>606</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7.06979512</v>
+        <v>7.07</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -1487,12 +1487,12 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>37.19103253701087</v>
+        <v>37.51288840756312</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>284</v>
+        <v>607</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6.93270768</v>
+        <v>6.93</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1512,12 +1512,12 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>9.05033601965382</v>
+        <v>8.56080424721501</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>285</v>
+        <v>608</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6.87395592</v>
+        <v>6.87</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1537,12 +1537,12 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.56521356225096</v>
+        <v>-3.61528368958146</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>286</v>
+        <v>609</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6.9522916</v>
+        <v>6.95</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1562,12 +1562,12 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>8.004498532493599</v>
+        <v>7.03492305251433</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>287</v>
+        <v>610</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6.98166748</v>
+        <v>6.98</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1587,12 +1587,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>19.94284091477714</v>
+        <v>19.17426122825825</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>288</v>
+        <v>611</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6.91312376</v>
+        <v>6.91</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1612,12 +1612,12 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>13.00579924612546</v>
+        <v>12.08367103575229</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>289</v>
+        <v>612</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6.92291572</v>
+        <v>6.92</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1637,12 +1637,12 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>11.72961336559116</v>
+        <v>10.79555080896882</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>290</v>
+        <v>613</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6.91312376</v>
+        <v>6.91</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -1662,12 +1662,12 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>9.588126557926429</v>
+        <v>8.631544914235512</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>291</v>
+        <v>614</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6.9033318</v>
+        <v>6.9</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -1687,12 +1687,12 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>7.029001830122894</v>
+        <v>6.041941166797614</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>292</v>
+        <v>615</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6.86416396</v>
+        <v>6.86</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -1712,12 +1712,12 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1.487206253225537</v>
+        <v>-0.07544010170197524</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>293</v>
+        <v>616</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6.97187552</v>
+        <v>6.97</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -1737,12 +1737,12 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>54.72313843487851</v>
+        <v>53.19720436262858</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>294</v>
+        <v>617</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>7.01104336</v>
+        <v>7.01</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -1762,12 +1762,12 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>87.80028002408703</v>
+        <v>86.82209972453697</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>295</v>
+        <v>618</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>7.02083532</v>
+        <v>7.02</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -1787,12 +1787,12 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>74.38307205122852</v>
+        <v>73.94132328455943</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>296</v>
+        <v>619</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6.99145944</v>
+        <v>6.99</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -1812,12 +1812,12 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>58.88524145440549</v>
+        <v>58.56226838761602</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>297</v>
+        <v>620</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7.0012514</v>
+        <v>7</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -1837,12 +1837,12 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>52.12117880727861</v>
+        <v>51.88677838792336</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>298</v>
+        <v>621</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>7.0502112</v>
+        <v>7.05</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -1862,12 +1862,12 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>59.19670252674065</v>
+        <v>59.22320788272249</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>299</v>
+        <v>622</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6.98166748</v>
+        <v>6.98</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -1887,12 +1887,12 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>46.55761913561425</v>
+        <v>46.35979700141019</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6.91312376</v>
+        <v>6.91</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -1912,12 +1912,12 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>24.3386085179344</v>
+        <v>23.67851160376246</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>301</v>
+        <v>624</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6.94249964</v>
+        <v>6.94</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -1937,12 +1937,12 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>18.63128501951272</v>
+        <v>17.86275825201984</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>302</v>
+        <v>625</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6.99145944</v>
+        <v>6.99</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -1962,12 +1962,12 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>21.67161284182349</v>
+        <v>21.05441333486232</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>303</v>
+        <v>626</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7.0012514</v>
+        <v>7</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -1987,12 +1987,12 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>26.54083859526479</v>
+        <v>26.05935384792845</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>304</v>
+        <v>627</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7.03062728</v>
+        <v>7.03</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -2012,12 +2012,12 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>47.49508729889784</v>
+        <v>47.19478524228559</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>305</v>
+        <v>628</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7.04041924</v>
+        <v>7.04</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -2037,12 +2037,12 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>61.19269054933163</v>
+        <v>61.04718020384804</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>306</v>
+        <v>629</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>7.08937904</v>
+        <v>7.09</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -2062,12 +2062,12 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>84.15282396192467</v>
+        <v>84.43082622517893</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>307</v>
+        <v>630</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2075,24 +2075,24 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6.96208356</v>
+        <v>6.96</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>50.2244052314779</v>
+        <v>49.75637860846115</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>308</v>
+        <v>631</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6.92291572</v>
+        <v>6.92</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -2112,12 +2112,12 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>18.93659922413737</v>
+        <v>17.79882804312885</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>309</v>
+        <v>632</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6.94249964</v>
+        <v>6.94</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -2137,12 +2137,12 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>10.65630968393643</v>
+        <v>9.347137374688728</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>310</v>
+        <v>633</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7.06979512</v>
+        <v>7.07</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -2162,12 +2162,12 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>49.29053628415812</v>
+        <v>48.85838300759202</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>311</v>
+        <v>634</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7.099171</v>
+        <v>7.1</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -2187,12 +2187,12 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>78.57717000081867</v>
+        <v>78.79906505022227</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>312</v>
+        <v>635</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7.23625844</v>
+        <v>7.24</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -2212,12 +2212,12 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>100.7638895538042</v>
+        <v>101.8421836658793</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>313</v>
+        <v>636</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7.13833884</v>
+        <v>7.14</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -2237,12 +2237,12 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>88.31755496025325</v>
+        <v>89.31557560363177</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>314</v>
+        <v>637</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7.099171</v>
+        <v>7.1</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -2262,12 +2262,12 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>71.73822113296758</v>
+        <v>72.45842573415045</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>315</v>
+        <v>638</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7.15792276</v>
+        <v>7.16</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -2287,12 +2287,12 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>75.53451733076037</v>
+        <v>76.35276656554933</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>316</v>
+        <v>639</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7.15792276</v>
+        <v>7.16</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -2312,12 +2312,12 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>76.85372729549704</v>
+        <v>77.69010981804868</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>317</v>
+        <v>640</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7.04041924</v>
+        <v>7.04</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -2337,12 +2337,12 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>49.64148054328645</v>
+        <v>49.90500023689545</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>318</v>
+        <v>641</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7.099171</v>
+        <v>7.1</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -2362,12 +2362,12 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>35.2695238311458</v>
+        <v>35.5941003907229</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>319</v>
+        <v>642</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7.10896296</v>
+        <v>7.11</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -2387,12 +2387,12 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>32.07426264451203</v>
+        <v>32.49363744070169</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>320</v>
+        <v>643</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.22646648</v>
+        <v>7.23</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -2412,12 +2412,12 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>61.53478404550724</v>
+        <v>62.66966172971976</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.08937904</v>
+        <v>7.09</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -2437,12 +2437,12 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>37.63242072660677</v>
+        <v>38.27616691149198</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>322</v>
+        <v>645</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7.01104336</v>
+        <v>7.01</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -2462,12 +2462,12 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>6.462141349240596</v>
+        <v>6.379317137873286</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>323</v>
+        <v>646</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6.97187552</v>
+        <v>6.97</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
@@ -2487,12 +2487,12 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1023280785158249</v>
+        <v>-0.4518945937036278</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>324</v>
+        <v>647</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6.96208356</v>
+        <v>6.96</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -2512,12 +2512,12 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.510716264217763</v>
+        <v>-2.303278052708194</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>325</v>
+        <v>648</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7.03062728</v>
+        <v>7.03</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -2537,12 +2537,12 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>13.72970618591319</v>
+        <v>13.1614629296486</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>326</v>
+        <v>649</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7.02083532</v>
+        <v>7.02</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -2562,12 +2562,12 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>20.43969266940785</v>
+        <v>19.9720675050754</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>327</v>
+        <v>650</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6.98166748</v>
+        <v>6.98</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -2587,12 +2587,12 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>16.18007168710863</v>
+        <v>15.61023666609384</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>328</v>
+        <v>651</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7.38313784</v>
+        <v>7.38</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -2612,12 +2612,12 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>74.87508597535546</v>
+        <v>74.12341622006608</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>329</v>
+        <v>652</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7.21667452</v>
+        <v>7.22</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -2637,12 +2637,12 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>76.86452721731453</v>
+        <v>77.07111580638218</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>330</v>
+        <v>653</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7.25584236</v>
+        <v>7.26</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -2662,12 +2662,12 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>82.3193314118169</v>
+        <v>83.13652528101954</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>331</v>
+        <v>654</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7.1970906</v>
+        <v>7.2</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -2687,12 +2687,12 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>74.04154089694946</v>
+        <v>74.93537451545215</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>332</v>
+        <v>655</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.25584236</v>
+        <v>7.26</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -2712,12 +2712,12 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>77.91346279068063</v>
+        <v>79.00636664865857</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>333</v>
+        <v>656</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7.1970906</v>
+        <v>7.2</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -2737,12 +2737,12 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>68.06059887781889</v>
+        <v>69.03586144218414</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>334</v>
+        <v>657</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7.38313784</v>
+        <v>7.38</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -2762,12 +2762,12 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>88.29518541160411</v>
+        <v>88.17788321363098</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>335</v>
+        <v>658</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7.61814488</v>
+        <v>7.62</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -2787,12 +2787,12 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>101.0888699364416</v>
+        <v>101.1545910967424</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>336</v>
+        <v>659</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.56918508</v>
+        <v>7.57</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
@@ -2812,12 +2812,12 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>87.58767321504669</v>
+        <v>87.62315605228841</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>337</v>
+        <v>660</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7.6377288</v>
+        <v>7.64</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -2837,12 +2837,12 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>81.67860950861674</v>
+        <v>81.90069398900792</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>338</v>
+        <v>661</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7.71606448</v>
+        <v>7.72</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -2862,12 +2862,12 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>87.38989323929579</v>
+        <v>87.90601043871496</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>339</v>
+        <v>662</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7.60835292</v>
+        <v>7.61</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -2887,12 +2887,12 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>76.90150384093619</v>
+        <v>77.28630767876447</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>340</v>
+        <v>663</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7.50064136</v>
+        <v>7.5</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -2912,12 +2912,12 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>58.55442404640374</v>
+        <v>58.59470497639992</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>341</v>
+        <v>664</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7.40272176</v>
+        <v>7.4</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -2937,12 +2937,12 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>36.58961611827917</v>
+        <v>36.20487277058015</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>342</v>
+        <v>665</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7.37334588</v>
+        <v>7.37</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -2962,12 +2962,12 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>20.49838764411214</v>
+        <v>19.82392795442856</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>343</v>
+        <v>666</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7.46147352</v>
+        <v>7.46</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -2987,12 +2987,12 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>13.42448265980634</v>
+        <v>12.82475454277615</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>344</v>
+        <v>667</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>7.43209764</v>
+        <v>7.43</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
@@ -3012,12 +3012,12 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>6.974856747664759</v>
+        <v>6.339684635311386</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>345</v>
+        <v>668</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>7.45168156</v>
+        <v>7.45</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -3037,12 +3037,12 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>8.775549129942874</v>
+        <v>8.214070324483089</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>346</v>
+        <v>669</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7.33417804</v>
+        <v>7.33</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -3062,12 +3062,12 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>-3.238555284103654</v>
+        <v>-4.109448138143648</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>347</v>
+        <v>670</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>7.34397</v>
+        <v>7.34</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -3087,12 +3087,12 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>-4.2866938382668</v>
+        <v>-5.439656859071015</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>348</v>
+        <v>671</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>7.20688256</v>
+        <v>7.21</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -3112,12 +3112,12 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>-4.179615522821585</v>
+        <v>-4.115809400954809</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>349</v>
+        <v>672</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>7.07958708</v>
+        <v>7.08</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -3137,12 +3137,12 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>-5.441736379171815</v>
+        <v>-5.249086588328709</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>350</v>
+        <v>673</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>7.099171</v>
+        <v>7.1</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -3162,12 +3162,12 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>-2.141336625687622</v>
+        <v>-1.847768492172243</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>351</v>
+        <v>674</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>7.08937904</v>
+        <v>7.09</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -3187,12 +3187,12 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>3.852149858062401</v>
+        <v>4.140193308503466</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>352</v>
+        <v>675</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>7.12854688</v>
+        <v>7.13</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
@@ -3212,12 +3212,12 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>13.86002344593572</v>
+        <v>14.24791233831832</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>353</v>
+        <v>676</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>7.099171</v>
+        <v>7.1</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -3237,12 +3237,12 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>15.9404241081774</v>
+        <v>16.28026444711875</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>354</v>
+        <v>677</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>7.11875492</v>
+        <v>7.12</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -3262,12 +3262,12 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>21.97644336617754</v>
+        <v>22.36109572960708</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>355</v>
+        <v>678</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>7.11875492</v>
+        <v>7.12</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -3287,12 +3287,12 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>26.9848250422067</v>
+        <v>27.40176449155031</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>356</v>
+        <v>679</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>7.11875492</v>
+        <v>7.12</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -3312,12 +3312,12 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>32.51757319864462</v>
+        <v>32.97541914169199</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>357</v>
+        <v>680</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>7.22646648</v>
+        <v>7.23</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -3337,12 +3337,12 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>72.10424943128626</v>
+        <v>73.29632219019459</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>358</v>
+        <v>681</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>7.16771472</v>
+        <v>7.17</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -3362,12 +3362,12 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>73.75023655025394</v>
+        <v>74.92527792106121</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>359</v>
+        <v>682</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>7.12854688</v>
+        <v>7.13</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
@@ -3387,12 +3387,12 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>61.52541089119542</v>
+        <v>62.4188683400947</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>360</v>
+        <v>683</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>7.16771472</v>
+        <v>7.17</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -3412,12 +3412,12 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>59.57345859449707</v>
+        <v>60.64549770840547</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>361</v>
+        <v>684</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>7.03062728</v>
+        <v>7.03</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -3437,12 +3437,12 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>21.63397616612319</v>
+        <v>21.8334454386672</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>362</v>
+        <v>685</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>6.93270768</v>
+        <v>6.93</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
@@ -3462,12 +3462,12 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>3.992640295158282</v>
+        <v>3.374333994598373</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>363</v>
+        <v>686</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6.93270768</v>
+        <v>6.93</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
@@ -3487,12 +3487,12 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1.684742796391482</v>
+        <v>0.732240401825436</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>364</v>
+        <v>687</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6.96208356</v>
+        <v>6.96</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
@@ -3512,12 +3512,12 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>7.517887391378451</v>
+        <v>6.568661335143261</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>365</v>
+        <v>688</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>6.97187552</v>
+        <v>6.97</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -3537,12 +3537,12 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>13.34011592940384</v>
+        <v>12.48045495683164</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>366</v>
+        <v>689</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6.93270768</v>
+        <v>6.93</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -3562,12 +3562,12 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>9.533613834906831</v>
+        <v>8.58304007798943</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>367</v>
+        <v>690</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>6.94249964</v>
+        <v>6.94</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -3587,12 +3587,12 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>10.11587803347414</v>
+        <v>9.195018255208659</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>368</v>
+        <v>691</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>7.01104336</v>
+        <v>7.01</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -3612,12 +3612,12 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>24.52845345134029</v>
+        <v>23.94138968163666</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>369</v>
+        <v>692</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>7.04041924</v>
+        <v>7.04</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -3637,12 +3637,12 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>37.65310325357633</v>
+        <v>37.37395960526004</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>370</v>
+        <v>693</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6.98166748</v>
+        <v>6.98</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -3662,12 +3662,12 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>51.52482502639486</v>
+        <v>50.82266686737433</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>371</v>
+        <v>694</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>7.02083532</v>
+        <v>7.02</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -3687,12 +3687,12 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>73.07616525582597</v>
+        <v>72.4999056223285</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>372</v>
+        <v>695</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>7.06000316</v>
+        <v>7.06</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
@@ -3712,12 +3712,12 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>81.97457830038462</v>
+        <v>81.80156684954244</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>373</v>
+        <v>696</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>7.06000316</v>
+        <v>7.06</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -3737,12 +3737,12 @@
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>84.550610663624</v>
+        <v>84.57588822147744</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>374</v>
+        <v>697</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3762,12 +3762,12 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>90.93635672685942</v>
+        <v>91.04788951761789</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>375</v>
+        <v>698</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3787,12 +3787,12 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>90.2332600449016</v>
+        <v>90.37073596242247</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>376</v>
+        <v>699</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>95.14986676427515</v>
+        <v>95.28359785841029</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>377</v>
+        <v>700</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3837,12 +3837,12 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>84.75376127394463</v>
+        <v>84.87096899167111</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>378</v>
+        <v>701</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3862,12 +3862,12 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>53.05132783460255</v>
+        <v>53.14816874973334</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>379</v>
+        <v>702</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3887,12 +3887,12 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>15.68128624744868</v>
+        <v>15.75831514863353</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>380</v>
+        <v>703</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3912,12 +3912,12 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.5607246236954069</v>
+        <v>0.6203894185504026</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>381</v>
+        <v>704</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3937,12 +3937,12 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>14.24600853448227</v>
+        <v>14.29132652709565</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>382</v>
+        <v>705</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3962,12 +3962,12 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>10.55833259918776</v>
+        <v>10.59223890273674</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>383</v>
+        <v>706</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3987,12 +3987,12 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>36.13537215520236</v>
+        <v>36.16043922988393</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>384</v>
+        <v>707</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4012,12 +4012,12 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>49.54851000123686</v>
+        <v>49.56686329923498</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>385</v>
+        <v>708</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4037,12 +4037,12 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>53.70821830304075</v>
+        <v>53.72154844495752</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>386</v>
+        <v>709</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4062,12 +4062,12 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>46.11016092426779</v>
+        <v>46.11977742549099</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>387</v>
+        <v>710</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4087,12 +4087,12 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>47.5614882502108</v>
+        <v>47.56838574432317</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>388</v>
+        <v>711</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4112,12 +4112,12 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>63.01647545947172</v>
+        <v>63.02139811774458</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>389</v>
+        <v>712</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4137,12 +4137,12 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>85.10575027920193</v>
+        <v>85.10924827062688</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>390</v>
+        <v>713</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4162,12 +4162,12 @@
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>89.95873704749214</v>
+        <v>89.9612131879375</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>391</v>
+        <v>714</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4187,12 +4187,12 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>89.21240340968232</v>
+        <v>89.21415026742056</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>392</v>
+        <v>715</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4212,12 +4212,12 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>70.81625791031531</v>
+        <v>70.81748654710175</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>393</v>
+        <v>716</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4237,12 +4237,12 @@
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>76.84896980624038</v>
+        <v>76.84983160740526</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>394</v>
+        <v>717</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4262,12 +4262,12 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>72.39280207180397</v>
+        <v>72.39340507922984</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>395</v>
+        <v>718</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4287,12 +4287,12 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>89.29674297923967</v>
+        <v>89.29716396640092</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>396</v>
+        <v>719</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4312,12 +4312,12 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>76.95310475086418</v>
+        <v>76.95339806377879</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>397</v>
+        <v>720</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4337,12 +4337,12 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>72.84128356241524</v>
+        <v>72.84148754089637</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>398</v>
+        <v>721</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4362,12 +4362,12 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>60.91062951757866</v>
+        <v>60.91077112759146</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>399</v>
+        <v>722</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4387,12 +4387,12 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>67.75918780350591</v>
+        <v>67.75928595975361</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>400</v>
+        <v>723</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4412,12 +4412,12 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>68.22914779626117</v>
+        <v>68.22921573347466</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>401</v>
+        <v>724</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4437,12 +4437,12 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>64.50848004686671</v>
+        <v>64.50852700481903</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>402</v>
+        <v>725</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4462,12 +4462,12 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>56.52671201682344</v>
+        <v>56.5267444331094</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>403</v>
+        <v>726</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4487,12 +4487,12 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>28.20671050069076</v>
+        <v>28.20673285220435</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>404</v>
+        <v>727</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4512,12 +4512,12 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>30.07182280152487</v>
+        <v>30.07183819630482</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>405</v>
+        <v>728</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4537,12 +4537,12 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>58.81055552417875</v>
+        <v>58.81056611654598</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>406</v>
+        <v>729</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4562,12 +4562,12 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>83.17747442454299</v>
+        <v>83.17748170557489</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>407</v>
+        <v>730</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4587,12 +4587,12 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>73.54382470426856</v>
+        <v>73.54382970459233</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>408</v>
+        <v>731</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4612,12 +4612,12 @@
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>75.34643172727826</v>
+        <v>75.3464351583624</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>409</v>
+        <v>732</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4637,12 +4637,12 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>77.209726920847</v>
+        <v>77.20972927325977</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>410</v>
+        <v>733</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4662,12 +4662,12 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>73.23258447688826</v>
+        <v>73.23258608851228</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>411</v>
+        <v>734</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4687,12 +4687,12 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>65.73891324964652</v>
+        <v>65.73891435296179</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>412</v>
+        <v>735</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4712,12 +4712,12 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>81.1988745071217</v>
+        <v>81.19887526193136</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>413</v>
+        <v>736</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4737,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>76.3279638244675</v>
+        <v>76.32796434051807</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>414</v>
+        <v>737</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4762,12 +4762,12 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>40.81980837914369</v>
+        <v>40.81980873174015</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>415</v>
+        <v>738</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4787,7 +4787,382 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>14.00868454008602</v>
+        <v>14.00868478085881</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2021-09-16</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1.231567607305053</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2021-09-17</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D176" t="b">
+        <v>0</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4.000514600787326</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2021-09-22</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D177" t="b">
+        <v>0</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.704615171973245</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2021-09-23</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="D178" t="b">
+        <v>0</v>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>7.873601618846735</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2021-09-24</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="D179" t="b">
+        <v>0</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-2.063986996995837</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2021-09-27</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D180" t="b">
+        <v>1</v>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-6.113762260717522</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2021-09-28</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="D181" t="b">
+        <v>0</v>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4.186269272493483</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D182" t="b">
+        <v>0</v>
+      </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>5.437131416868525</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D183" t="b">
+        <v>0</v>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>10.87042591619798</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="D184" t="b">
+        <v>0</v>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>23.336657628915</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2021-10-11</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="D185" t="b">
+        <v>0</v>
+      </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>26.43239124616903</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D186" t="b">
+        <v>0</v>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>13.53800715981871</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2021-10-13</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D187" t="b">
+        <v>0</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>11.72622719363024</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2021-10-14</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D188" t="b">
+        <v>0</v>
+      </c>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>11.99902990142885</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2021-10-15</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="D189" t="b">
+        <v>0</v>
+      </c>
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>4.720030604383293</v>
       </c>
     </row>
   </sheetData>
